--- a/430600/共享数据结构.xlsx
+++ b/430600/共享数据结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy.gao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED65C7-C435-B349-A6C5-16A7B07A12D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64932D7A-9154-A649-8B13-21654A39F0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表说明" sheetId="22" r:id="rId1"/>
@@ -49,44 +49,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>高大伟</author>
-  </authors>
-  <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>高大伟:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-缺少税务机关代码表。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="722">
   <si>
     <t>序号</t>
   </si>
@@ -184,9 +148,6 @@
     <t>地方教育费附加</t>
   </si>
   <si>
-    <t xml:space="preserve">税额 </t>
-  </si>
-  <si>
     <t>个人所得税</t>
   </si>
   <si>
@@ -1353,21 +1314,12 @@
     <t>SEZZS</t>
   </si>
   <si>
-    <t>SECSWHJSS</t>
-  </si>
-  <si>
-    <t>SEDFJYFJ</t>
-  </si>
-  <si>
     <t>SEGRSDS</t>
   </si>
   <si>
     <t>SEYHS</t>
   </si>
   <si>
-    <t>SETDZJS</t>
-  </si>
-  <si>
     <t>PGJG</t>
   </si>
   <si>
@@ -1466,10 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWJGDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SFWS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2362,10 +2310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A.10字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附件材料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2379,6 +2323,49 @@
   </si>
   <si>
     <t>CASENO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEDFJYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETDZZS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时无法提供</t>
+  </si>
+  <si>
+    <t>暂时无法提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额，列名错误，原列名SETDZJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额 ，列名错误，原列名SEDFJYFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额 ，列名错误，原列名SECSWHJSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWJG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名错误，原列名SWJGDM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2386,7 +2373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,21 +2394,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2454,8 +2426,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2501,6 +2480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,11 +2555,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2632,19 +2617,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2668,6 +2653,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2677,7 +2668,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3018,28 +3018,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -3047,25 +3047,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="D2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3073,22 +3073,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="D3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -3097,22 +3097,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -3121,22 +3121,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -3145,22 +3145,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3169,25 +3169,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="D7" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3195,22 +3195,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="D8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -3219,22 +3219,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="D9" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -3243,22 +3243,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -3326,19 +3326,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3346,19 +3346,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3366,19 +3366,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>479</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3386,16 +3386,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -3404,19 +3404,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>479</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3424,16 +3424,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F7" s="27"/>
     </row>
@@ -3442,16 +3442,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F8" s="27"/>
     </row>
@@ -3460,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -3478,16 +3478,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F10" s="27"/>
     </row>
@@ -3496,19 +3496,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3516,19 +3516,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3536,19 +3536,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3556,19 +3556,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3576,16 +3576,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F15" s="27"/>
     </row>
@@ -3594,19 +3594,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3636,10 +3636,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>201</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>202</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>203</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>205</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3773,10 +3773,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3838,16 +3838,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="31">
+        <v>209</v>
+      </c>
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>210</v>
+      <c r="D2" s="33" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3869,117 +3869,117 @@
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+        <v>211</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+        <v>212</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+        <v>214</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+        <v>215</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+        <v>216</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+        <v>217</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+        <v>218</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+        <v>219</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+        <v>220</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3989,13 +3989,13 @@
         <v>201</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4003,23 +4003,23 @@
         <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>204</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>205</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="9">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>206</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>207</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="33">
+        <v>99</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="C21" s="31">
-        <v>99</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4083,10 +4083,10 @@
         <v>209</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+        <v>233</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4123,10 +4123,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>83</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>82</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>81</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4439,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B38"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4451,10 +4451,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>83</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>82</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>81</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4779,10 +4779,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4860,10 +4860,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4926,185 +4926,186 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3" s="4" customFormat="1">
       <c r="B1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3">
+        <v>99</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3">
-        <v>99</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5122,7 +5123,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5134,10 +5135,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5145,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5153,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5161,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5169,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5177,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5185,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5193,7 +5194,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5201,7 +5202,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5223,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
@@ -5233,10 +5234,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -5252,34 +5253,34 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -5292,14 +5293,14 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>24</v>
@@ -5307,17 +5308,19 @@
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -5325,10 +5328,12 @@
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="32" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5346,11 +5351,11 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -5366,11 +5371,11 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="24">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
@@ -5386,11 +5391,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>398</v>
+      <c r="B9" s="28" t="s">
+        <v>712</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
@@ -5401,16 +5406,16 @@
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>28</v>
+      <c r="F9" s="28" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>399</v>
+      <c r="B10" s="28" t="s">
+        <v>713</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>23</v>
@@ -5421,16 +5426,16 @@
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
+      <c r="F10" s="28" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -5439,18 +5444,18 @@
         <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="24">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>23</v>
@@ -5459,128 +5464,134 @@
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="37">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="37">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -5589,59 +5600,59 @@
         <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -5672,10 +5683,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5683,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5691,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5699,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5707,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5715,7 +5726,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5745,10 +5756,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5756,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5764,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5772,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5780,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5795,137 +5806,138 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3" s="4" customFormat="1">
       <c r="B1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5940,57 +5952,58 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3" s="4" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9">
+        <v>196</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9">
+      <c r="C2" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
+      <c r="C3" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
+      <c r="C4" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>666</v>
+      <c r="C5" s="3" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -6005,629 +6018,630 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="B1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3">
       <c r="B1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="30" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="C6" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="30" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="30" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="30" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="30" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="30" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="30" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="30" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="30" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="30" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="30" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="30" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="30" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="30" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="30" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="30" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="30" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="30" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="30" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="30" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="30" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="30" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="30" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="30" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="30" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="30" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="30" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="30" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="30" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="30" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="30" t="s">
+    <row r="57" spans="2:3">
+      <c r="B57" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="30" t="s">
+    <row r="58" spans="2:3">
+      <c r="B58" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="30" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="30" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="30" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="30" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" s="30" t="s">
         <v>620</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="30" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="30" t="s">
+    <row r="64" spans="2:3">
+      <c r="B64" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="30" t="s">
+    <row r="65" spans="2:3">
+      <c r="B65" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="30" t="s">
+    <row r="66" spans="2:3">
+      <c r="B66" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="30" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="30" t="s">
+    <row r="68" spans="2:3">
+      <c r="B68" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="30" t="s">
+    <row r="69" spans="2:3">
+      <c r="B69" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="30" t="s">
+    <row r="70" spans="2:3">
+      <c r="B70" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="30" t="s">
+    <row r="71" spans="2:3">
+      <c r="B71" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="30" t="s">
+    <row r="72" spans="2:3">
+      <c r="B72" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="30" t="s">
+    <row r="73" spans="2:3">
+      <c r="B73" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="30" t="s">
+    <row r="74" spans="2:3">
+      <c r="B74" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="30" t="s">
+    <row r="75" spans="2:3">
+      <c r="B75" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="30" t="s">
-        <v>635</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6636,221 +6650,222 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+      <selection activeCell="A25" sqref="A2:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3">
       <c r="B1" s="11" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
+        <v>196</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="3">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="3">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="3">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="3">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="3">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="3">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="3">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3">
-        <v>99</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6859,149 +6874,150 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>197</v>
-      </c>
+    <row r="1" spans="2:3">
       <c r="B1" s="11" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
+        <v>292</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3">
+        <v>105</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>101</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="3">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>102</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="3">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>103</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="3">
+        <v>200</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="3">
+        <v>201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3">
+        <v>202</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="3">
+        <v>204</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="3">
+        <v>205</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>107</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="3">
+        <v>888</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>200</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>201</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>202</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>203</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>204</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>205</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>888</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7012,9 +7028,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -7048,37 +7062,37 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -7086,206 +7100,208 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C7" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="D9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>430</v>
+      <c r="B11" s="28" t="s">
+        <v>720</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="37">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -7296,15 +7312,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -7317,7 +7331,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -7337,28 +7351,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="9">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -7375,64 +7389,64 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:8">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:8">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -7442,15 +7456,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:8">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7460,46 +7474,46 @@
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:8">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -7557,7 +7571,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7568,9 +7581,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -7583,7 +7594,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -7603,113 +7614,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:7">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="9">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="9">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7"/>
@@ -7771,9 +7782,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -7786,7 +7799,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7806,35 +7819,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="34">
+    <row r="2" spans="1:7">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="34">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -7844,239 +7857,242 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34">
+    <row r="4" spans="1:7">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="34">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="34">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="34">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="34">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>383</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -8085,292 +8101,292 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="34">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="34">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="34">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="34">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="34">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="34">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="34">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="34">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="34">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="34">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="34">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="34">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="34">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="34">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="34">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -8379,16 +8395,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -8407,7 +8423,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8442,34 +8458,34 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
@@ -8484,380 +8500,380 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="31">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="31">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="31">
+        <v>26</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="34">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="34">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="34">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="34">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="34">
-        <v>16</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="34">
-        <v>17</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="34">
-        <v>26</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>319</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="31">
+        <v>27</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="34">
-        <v>27</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="C19" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="31">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="34">
-        <v>28</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>323</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="31">
+        <v>29</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="34">
-        <v>29</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="C21" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="31">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="34">
-        <v>30</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="31">
+        <v>31</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="34">
-        <v>31</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>329</v>
-      </c>
       <c r="C23" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>24</v>
@@ -8866,7 +8882,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8874,16 +8890,16 @@
         <v>33</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" s="13"/>
     </row>
@@ -8892,16 +8908,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -8910,16 +8926,16 @@
         <v>36</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="13"/>
     </row>
@@ -8928,57 +8944,57 @@
         <v>37</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>38</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>39</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8986,16 +9002,16 @@
         <v>40</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F31" s="13"/>
     </row>
@@ -9013,8 +9029,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9049,154 +9065,154 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9205,49 +9221,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -9259,19 +9275,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9279,16 +9295,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9307,7 +9323,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9342,78 +9358,78 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -9422,96 +9438,96 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9520,49 +9536,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -9570,23 +9586,23 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9594,16 +9610,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F15" s="3"/>
     </row>
